--- a/data/trans_orig/cron_mort_index-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Habitat-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04243123264558028</v>
+        <v>0.04204625704134495</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06110791641482392</v>
+        <v>0.05951922447084028</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0839951848666637</v>
+        <v>0.0821214016628532</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2251545871719672</v>
+        <v>0.2224645012746279</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04281417024556597</v>
+        <v>0.04406715390133572</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06756782692737251</v>
+        <v>0.0661991413682072</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08387639212059701</v>
+        <v>0.08585145912089992</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.20937110561767</v>
+        <v>0.2084340421189847</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0481703796272397</v>
+        <v>0.04773087819175446</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06859067968910386</v>
+        <v>0.06880520936918548</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09115181671628741</v>
+        <v>0.08902856820152698</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2238078972456912</v>
+        <v>0.2233975049687643</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07655200300501708</v>
+        <v>0.07805131674499324</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1026509122454589</v>
+        <v>0.1057796224349819</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1329956698145877</v>
+        <v>0.1319881276512291</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.300056167762788</v>
+        <v>0.2968809540619845</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07901666119267782</v>
+        <v>0.08046814624424248</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1120927746300021</v>
+        <v>0.1118371410948529</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1361231551104011</v>
+        <v>0.1346258745828345</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2638575825769059</v>
+        <v>0.2637932818368668</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0729285247241263</v>
+        <v>0.07277454170054427</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0977206784598763</v>
+        <v>0.09926112919863153</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1251897106341167</v>
+        <v>0.1234605882619894</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2706788289321578</v>
+        <v>0.2734876335096727</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05147631050283874</v>
+        <v>0.05178925866157674</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05749932919648897</v>
+        <v>0.05628495555609293</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0746918124591453</v>
+        <v>0.07353005268031688</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2026296388755295</v>
+        <v>0.2024305349973562</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06187829830590177</v>
+        <v>0.06299126664681963</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08161190000188145</v>
+        <v>0.08089570499577121</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07809080546596001</v>
+        <v>0.07760399776162134</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1860762692450278</v>
+        <v>0.1876554793736603</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06098300450718439</v>
+        <v>0.06240792656465954</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07294578066026504</v>
+        <v>0.0726019826791646</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08123265668742856</v>
+        <v>0.08171189983496954</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2027345515140874</v>
+        <v>0.2009486378712495</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0845602214038572</v>
+        <v>0.08413523148756737</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09197269886539704</v>
+        <v>0.09185170079388529</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1092152873396684</v>
+        <v>0.1101127017714881</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2668479292547457</v>
+        <v>0.2709804693304609</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09941581119578242</v>
+        <v>0.09881328833444591</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1194126357486857</v>
+        <v>0.1200375688113926</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1159737658850704</v>
+        <v>0.1166452657383553</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2340197684437558</v>
+        <v>0.2356494102325252</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08640587936702884</v>
+        <v>0.08629124190446504</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09941576779070477</v>
+        <v>0.09931039512142625</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1073300660305873</v>
+        <v>0.109121847555899</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2418467110139749</v>
+        <v>0.2420451486327694</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02983499951465725</v>
+        <v>0.03097498831132587</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06196390247322672</v>
+        <v>0.06081591088840212</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08337967988848151</v>
+        <v>0.08169179594603791</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1866640413294953</v>
+        <v>0.189632866905828</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04909234755247947</v>
+        <v>0.04930149358164947</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08020944174486924</v>
+        <v>0.08139227271585911</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08051914644599882</v>
+        <v>0.08182008562561799</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1603465053312524</v>
+        <v>0.1577501919017349</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04437410802960583</v>
+        <v>0.04414219201511218</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07733956029975426</v>
+        <v>0.07800550956894785</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08789580447235167</v>
+        <v>0.0882050812872113</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1816609509186614</v>
+        <v>0.1825956319168329</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06110849139580501</v>
+        <v>0.06348141718298192</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1056061048130272</v>
+        <v>0.1037291451631765</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1332118089599174</v>
+        <v>0.1295732936835333</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2656204307092825</v>
+        <v>0.265571387728416</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0869581628182271</v>
+        <v>0.09001220692806951</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1254811647281188</v>
+        <v>0.1266851912801233</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1290818154810395</v>
+        <v>0.1279614384607718</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2147570577432363</v>
+        <v>0.2137386618163672</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06848968383505874</v>
+        <v>0.06871869080885684</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1090474244031143</v>
+        <v>0.107729778295286</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1198940264433326</v>
+        <v>0.1204885708678041</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2284324212672267</v>
+        <v>0.2307400644321143</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.08963316862332127</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2420049654882231</v>
+        <v>0.242004965488223</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.06343924043065685</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04187780996186468</v>
+        <v>0.0412143306026617</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08959953999428834</v>
+        <v>0.09009910710969035</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07297130641046322</v>
+        <v>0.07068318017599461</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2129487029721991</v>
+        <v>0.2105771290423674</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.048326704111924</v>
+        <v>0.04981366767138756</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1083144363471174</v>
+        <v>0.1082201680212054</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08996927689400293</v>
+        <v>0.09113578166735933</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2116172047717591</v>
+        <v>0.2097177562132211</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04925163668598688</v>
+        <v>0.05040994125229789</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.105230239303795</v>
+        <v>0.1062172819925596</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08764836589130345</v>
+        <v>0.08778835290620535</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2184294693547151</v>
+        <v>0.2192708851434338</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06877294889836574</v>
+        <v>0.06859969437387992</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1385355426306359</v>
+        <v>0.1365232855045523</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1106125570350988</v>
+        <v>0.1081853674480134</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2726267037216074</v>
+        <v>0.2740023513164344</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07998156325314304</v>
+        <v>0.0827429060283338</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1524465989768753</v>
+        <v>0.1524721693121701</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.133388310382111</v>
+        <v>0.134434596373646</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2635953688911672</v>
+        <v>0.2632997796103334</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06966502589906348</v>
+        <v>0.07019413177511422</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1367621365506261</v>
+        <v>0.1377903990362043</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1163927908359889</v>
+        <v>0.1158579107311264</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2594300211767848</v>
+        <v>0.2595968822190398</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04904478669066011</v>
+        <v>0.04884733477686531</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07660757706608323</v>
+        <v>0.07679564364788954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08654030466274976</v>
+        <v>0.0857434680808874</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2205677762729599</v>
+        <v>0.2227739271765649</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05892199514737954</v>
+        <v>0.06008963272503545</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09619067461747376</v>
+        <v>0.0965725770797459</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09249591746338053</v>
+        <v>0.09338883792017091</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2028131998001422</v>
+        <v>0.2025390825080697</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05675342425149913</v>
+        <v>0.05686898820639158</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08860417124352402</v>
+        <v>0.08889674709437215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.09271961205209815</v>
+        <v>0.09262115326143899</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2156385981678157</v>
+        <v>0.2153935790137562</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06412182870453942</v>
+        <v>0.06453295157741136</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09771095664670978</v>
+        <v>0.09746103483366696</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1060914027953148</v>
+        <v>0.1062353596302747</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2559635143130682</v>
+        <v>0.2592991360402918</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07662068985245554</v>
+        <v>0.0770563981645089</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1175757551067996</v>
+        <v>0.1174180754453334</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1149168225085058</v>
+        <v>0.1161703062368887</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2304312176231643</v>
+        <v>0.228378720489897</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06864164931140564</v>
+        <v>0.06825822408767634</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1045377762291543</v>
+        <v>0.1043714504703653</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.107863571010583</v>
+        <v>0.1081512767018242</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2370563236516227</v>
+        <v>0.2373963716863298</v>
       </c>
     </row>
     <row r="19">
